--- a/qPCR Cp Values/Supplementary Table 10. Cp values and subsequent calculated relative expression from each qPCR.xlsx
+++ b/qPCR Cp Values/Supplementary Table 10. Cp values and subsequent calculated relative expression from each qPCR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://otagouni-my.sharepoint.com/personal/vaale391_student_otago_ac_nz/Documents/University/Honours/Data/qPCR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="776" documentId="11_F25DC773A252ABDACC10482BA99F75665BDE58F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4F543A9-4576-425B-A599-8045AD5B7BAC}"/>
+  <xr:revisionPtr revIDLastSave="800" documentId="11_F25DC773A252ABDACC10482BA99F75665BDE58F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3ADCE105-A147-4215-A26F-F3F31C541552}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cp Values for NL2 Diff. Exp." sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="36">
   <si>
     <t>sgRNA</t>
   </si>
@@ -70,9 +70,6 @@
     <t>CYC1 Cp</t>
   </si>
   <si>
-    <t xml:space="preserve">NL2 201/220 Cp </t>
-  </si>
-  <si>
     <t xml:space="preserve">NL2 237 Cp </t>
   </si>
   <si>
@@ -100,9 +97,6 @@
     <t>TBP Cp</t>
   </si>
   <si>
-    <t>Investigating NL2 Isoform Differential Expression in CLN5i Neurons</t>
-  </si>
-  <si>
     <t>NL2 237 Expression</t>
   </si>
   <si>
@@ -143,6 +137,15 @@
   </si>
   <si>
     <t xml:space="preserve">Investigating Viral Knockdown of NL2 201 &amp; 220 </t>
+  </si>
+  <si>
+    <t>Investigating NL2 Variant Differential Expression in CLN5i Neurons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NL2 201 &amp; 220 Cp </t>
+  </si>
+  <si>
+    <t>NL2 201 &amp; 220 Expression Ratio</t>
   </si>
 </sst>
 </file>
@@ -539,21 +542,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8145F64-E732-428C-A0BC-361C597A488E}">
   <dimension ref="A2:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="3" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -561,7 +564,7 @@
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.5">
       <c r="B6" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -572,16 +575,16 @@
         <v>1</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -598,11 +601,11 @@
         <v>25.92</v>
       </c>
       <c r="F9" s="7">
-        <v>1.5646572225801008</v>
+        <v>1.5646572225801001</v>
       </c>
       <c r="G9" s="7">
         <f>F9*100</f>
-        <v>156.46572225801009</v>
+        <v>156.46572225801</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -657,7 +660,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
@@ -669,16 +672,16 @@
         <v>25.3</v>
       </c>
       <c r="F13" s="7">
-        <v>0.47270931142497596</v>
+        <v>0.47270931142497602</v>
       </c>
       <c r="G13" s="7">
         <f>F13*100</f>
-        <v>47.270931142497595</v>
+        <v>47.270931142497602</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="3">
         <v>2</v>
@@ -690,16 +693,16 @@
         <v>24.95</v>
       </c>
       <c r="F14" s="7">
-        <v>0.47269782902959978</v>
+        <v>0.4726978290296</v>
       </c>
       <c r="G14" s="7">
         <f>F14*100</f>
-        <v>47.269782902959975</v>
+        <v>47.269782902960003</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="3">
         <v>3</v>
@@ -711,11 +714,11 @@
         <v>26.15</v>
       </c>
       <c r="F15" s="7">
-        <v>0.37922578512922617</v>
+        <v>0.379225785129226</v>
       </c>
       <c r="G15" s="7">
         <f>F15*100</f>
-        <v>37.92257851292262</v>
+        <v>37.922578512922598</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -728,7 +731,7 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
@@ -749,7 +752,7 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="3">
         <v>2</v>
@@ -770,7 +773,7 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B19" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="3">
         <v>3</v>
@@ -813,7 +816,7 @@
     </row>
     <row r="24" spans="2:7" ht="21" x14ac:dyDescent="0.5">
       <c r="B24" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -824,16 +827,16 @@
         <v>1</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.35">
@@ -909,7 +912,7 @@
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B31" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
@@ -930,7 +933,7 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B32" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32" s="3">
         <v>2</v>
@@ -951,7 +954,7 @@
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="3">
         <v>3</v>
@@ -980,7 +983,7 @@
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
@@ -1001,7 +1004,7 @@
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B36" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C36" s="3">
         <v>2</v>
@@ -1022,7 +1025,7 @@
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B37" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C37" s="3">
         <v>3</v>
@@ -1056,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B4A669-1D1B-4F4E-8A9F-6459D01D6AFC}">
   <dimension ref="A2:H139"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1071,7 +1074,7 @@
   <sheetData>
     <row r="2" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -1085,21 +1088,21 @@
         <v>1</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -1120,7 +1123,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3">
         <v>2</v>
@@ -1141,7 +1144,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3">
         <v>3</v>
@@ -1168,7 +1171,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -1189,7 +1192,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3">
         <v>2</v>
@@ -1210,7 +1213,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="3">
         <v>3</v>
@@ -1237,7 +1240,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -1258,7 +1261,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B15" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="3">
         <v>2</v>
@@ -1279,7 +1282,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="3">
         <v>3</v>
@@ -1306,7 +1309,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -1327,7 +1330,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="3">
         <v>2</v>
@@ -1348,7 +1351,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B20" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="3">
         <v>3</v>
@@ -1375,7 +1378,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B22" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
@@ -1397,7 +1400,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B23" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="3">
         <v>2</v>
@@ -1418,7 +1421,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B24" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="3">
         <v>3</v>
@@ -1476,7 +1479,7 @@
     </row>
     <row r="32" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -1490,21 +1493,21 @@
         <v>1</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F35" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="13" t="s">
         <v>28</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B36" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
@@ -1525,7 +1528,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B37" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C37" s="3">
         <v>2</v>
@@ -1546,7 +1549,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B38" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38" s="3">
         <v>3</v>
@@ -1574,7 +1577,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B40" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
@@ -1595,7 +1598,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B41" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C41" s="3">
         <v>2</v>
@@ -1616,7 +1619,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B42" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C42" s="3">
         <v>3</v>
@@ -1644,7 +1647,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B44" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
@@ -1665,7 +1668,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B45" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C45" s="3">
         <v>2</v>
@@ -1686,7 +1689,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B46" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C46" s="3">
         <v>3</v>
@@ -1714,7 +1717,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B48" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
@@ -1735,7 +1738,7 @@
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B49" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C49" s="3">
         <v>2</v>
@@ -1756,7 +1759,7 @@
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B50" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C50" s="3">
         <v>3</v>
@@ -1784,7 +1787,7 @@
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B52" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
@@ -1806,7 +1809,7 @@
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B53" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C53" s="3">
         <v>2</v>
@@ -1827,7 +1830,7 @@
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B54" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C54" s="3">
         <v>3</v>
@@ -1930,8 +1933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B97B92-F1B7-4472-90C9-87B675A725CC}">
   <dimension ref="A2:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1939,8 +1942,8 @@
     <col min="1" max="1" width="14.453125" customWidth="1"/>
     <col min="2" max="2" width="15.08984375" customWidth="1"/>
     <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.26953125" bestFit="1" customWidth="1"/>
@@ -1948,7 +1951,7 @@
   <sheetData>
     <row r="2" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -1962,16 +1965,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -2465,7 +2468,7 @@
     </row>
     <row r="38" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -2479,16 +2482,16 @@
         <v>1</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F41" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" s="13" t="s">
         <v>28</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -2990,7 +2993,7 @@
   <dimension ref="A2:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3005,7 +3008,7 @@
   <sheetData>
     <row r="2" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3016,13 +3019,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>24</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -3085,7 +3088,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -3102,7 +3105,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" s="3">
         <v>2</v>
@@ -3119,7 +3122,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="3">
         <v>3</v>
@@ -3142,7 +3145,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
@@ -3151,15 +3154,15 @@
         <v>40.11</v>
       </c>
       <c r="F14" s="7">
-        <v>20.816666666666666</v>
+        <v>20.816666666666698</v>
       </c>
       <c r="G14" s="7">
-        <v>5.4482174466812259E-3</v>
+        <v>5.4482174466812302E-3</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C15" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="3">
         <v>2</v>
@@ -3176,7 +3179,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" s="3">
         <v>3</v>
